--- a/4/ans/AnsibleSample.xlsx
+++ b/4/ans/AnsibleSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murakami\Desktop\登壇\python-ansible\演習環境\ansible-python\4\lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murakami\Desktop\登壇\python-ansible\演習環境\ansible-python\4\ans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC9AEB9-58A2-4468-8722-E8B2647548E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA652FA1-5E88-42ED-9547-4BE7B29E1479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="9260" windowHeight="8910" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
@@ -80,22 +80,6 @@
   </si>
   <si>
     <t>ユーザ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>student4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -118,10 +102,6 @@
   </si>
   <si>
     <t>phpモジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカルユーザ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -210,6 +190,22 @@
   </si>
   <si>
     <t>DBAdminUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebAdminUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContentUPLoadUser</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -345,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +388,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -743,15 +742,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9"/>
@@ -776,15 +775,15 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12">
         <v>24</v>
@@ -792,18 +791,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -812,15 +811,15 @@
       <c r="B8" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
@@ -832,72 +831,72 @@
       <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
@@ -907,10 +906,10 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -921,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -933,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -981,10 +980,10 @@
       <c r="F25" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
@@ -995,36 +994,28 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
+      <c r="A29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
+      <c r="A30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
@@ -1066,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C974870-3A9B-C642-9016-D9E0B866A04E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1077,15 +1068,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9"/>
@@ -1101,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1110,15 +1101,15 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12">
         <v>24</v>
@@ -1126,18 +1117,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -1146,15 +1137,15 @@
       <c r="B8" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
@@ -1166,60 +1157,60 @@
       <c r="D11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
@@ -1229,10 +1220,10 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1243,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
@@ -1255,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -1303,10 +1294,10 @@
       <c r="F25" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="13" t="s">
@@ -1318,10 +1309,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1354,11 +1345,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:B10"/>
@@ -1366,6 +1352,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
